--- a/codes/test_shell_output/testPOS_2.xlsx
+++ b/codes/test_shell_output/testPOS_2.xlsx
@@ -348,114 +348,114 @@
   <sheetData>
     <row r="8" spans="2:3">
       <c r="B8">
-        <v>13.2</v>
+        <v>19.25133689839572</v>
       </c>
       <c r="C8">
-        <v>13.2</v>
+        <v>19.25133689839572</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12">
-        <v>18.8</v>
+        <v>15.57486631016043</v>
       </c>
       <c r="C12">
-        <v>18.8</v>
+        <v>15.57486631016043</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16">
-        <v>8.4</v>
+        <v>9.358288770053475</v>
       </c>
       <c r="C16">
-        <v>8.4</v>
+        <v>9.358288770053475</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20">
-        <v>24.6</v>
+        <v>14.83957219251337</v>
       </c>
       <c r="C20">
-        <v>24.6</v>
+        <v>14.83957219251337</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24">
-        <v>52</v>
+        <v>48.06149732620321</v>
       </c>
       <c r="C24">
-        <v>52</v>
+        <v>48.06149732620321</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28">
-        <v>14</v>
+        <v>13.16844919786096</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>13.16844919786096</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32">
-        <v>15.8</v>
+        <v>21.3903743315508</v>
       </c>
       <c r="C32">
-        <v>15.8</v>
+        <v>21.3903743315508</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36">
-        <v>0.2</v>
+        <v>0.06684491978609626</v>
       </c>
       <c r="C36">
-        <v>0.2</v>
+        <v>0.06684491978609626</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40">
-        <v>19.2</v>
+        <v>16.17647058823529</v>
       </c>
       <c r="C40">
-        <v>19.2</v>
+        <v>16.17647058823529</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44">
-        <v>7</v>
+        <v>7.68716577540107</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>7.68716577540107</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48">
-        <v>0.2</v>
+        <v>0.4010695187165775</v>
       </c>
       <c r="C48">
-        <v>0.2</v>
+        <v>0.4010695187165775</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52">
-        <v>0.2</v>
+        <v>1.60427807486631</v>
       </c>
       <c r="C52">
-        <v>0.2</v>
+        <v>1.60427807486631</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56">
-        <v>0.8</v>
+        <v>0.6016042780748663</v>
       </c>
       <c r="C56">
-        <v>0.8</v>
+        <v>0.6016042780748663</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60">
-        <v>0</v>
+        <v>0.3342245989304813</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.3342245989304813</v>
       </c>
     </row>
     <row r="64" spans="2:3">

--- a/codes/test_shell_output/testPOS_2.xlsx
+++ b/codes/test_shell_output/testPOS_2.xlsx
@@ -348,114 +348,114 @@
   <sheetData>
     <row r="8" spans="2:3">
       <c r="B8">
-        <v>19.25133689839572</v>
+        <v>14.53333333333333</v>
       </c>
       <c r="C8">
-        <v>19.25133689839572</v>
+        <v>14.53333333333333</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12">
-        <v>15.57486631016043</v>
+        <v>17.46666666666667</v>
       </c>
       <c r="C12">
-        <v>15.57486631016043</v>
+        <v>17.46666666666667</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16">
-        <v>9.358288770053475</v>
+        <v>11.46666666666667</v>
       </c>
       <c r="C16">
-        <v>9.358288770053475</v>
+        <v>11.46666666666667</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20">
-        <v>14.83957219251337</v>
+        <v>22.26666666666667</v>
       </c>
       <c r="C20">
-        <v>14.83957219251337</v>
+        <v>22.26666666666667</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24">
-        <v>48.06149732620321</v>
+        <v>51.8</v>
       </c>
       <c r="C24">
-        <v>48.06149732620321</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28">
-        <v>13.16844919786096</v>
+        <v>10.53333333333333</v>
       </c>
       <c r="C28">
-        <v>13.16844919786096</v>
+        <v>10.53333333333333</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32">
-        <v>21.3903743315508</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="C32">
-        <v>21.3903743315508</v>
+        <v>19.66666666666667</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36">
-        <v>0.06684491978609626</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="C36">
-        <v>0.06684491978609626</v>
+        <v>1.066666666666667</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40">
-        <v>16.17647058823529</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="C40">
-        <v>16.17647058823529</v>
+        <v>17.33333333333333</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44">
-        <v>7.68716577540107</v>
+        <v>4.6</v>
       </c>
       <c r="C44">
-        <v>7.68716577540107</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48">
-        <v>0.4010695187165775</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0.4010695187165775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52">
-        <v>1.60427807486631</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="C52">
-        <v>1.60427807486631</v>
+        <v>1.133333333333333</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56">
-        <v>0.6016042780748663</v>
+        <v>0.2</v>
       </c>
       <c r="C56">
-        <v>0.6016042780748663</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60">
-        <v>0.3342245989304813</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0.3342245989304813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:3">

--- a/codes/test_shell_output/testPOS_2.xlsx
+++ b/codes/test_shell_output/testPOS_2.xlsx
@@ -348,106 +348,106 @@
   <sheetData>
     <row r="8" spans="2:3">
       <c r="B8">
-        <v>14.53333333333333</v>
+        <v>18.26792963464141</v>
       </c>
       <c r="C8">
-        <v>14.53333333333333</v>
+        <v>18.26792963464141</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12">
-        <v>17.46666666666667</v>
+        <v>19.21515561569689</v>
       </c>
       <c r="C12">
-        <v>17.46666666666667</v>
+        <v>19.21515561569689</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16">
-        <v>11.46666666666667</v>
+        <v>13.26116373477672</v>
       </c>
       <c r="C16">
-        <v>11.46666666666667</v>
+        <v>13.26116373477672</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20">
-        <v>22.26666666666667</v>
+        <v>6.224627875507442</v>
       </c>
       <c r="C20">
-        <v>22.26666666666667</v>
+        <v>6.224627875507442</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24">
-        <v>51.8</v>
+        <v>41.13667117726658</v>
       </c>
       <c r="C24">
-        <v>51.8</v>
+        <v>41.13667117726658</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28">
-        <v>10.53333333333333</v>
+        <v>6.630581867388362</v>
       </c>
       <c r="C28">
-        <v>10.53333333333333</v>
+        <v>6.630581867388362</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32">
-        <v>19.66666666666667</v>
+        <v>31.66441136671177</v>
       </c>
       <c r="C32">
-        <v>19.66666666666667</v>
+        <v>31.66441136671177</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36">
-        <v>1.066666666666667</v>
+        <v>6.359945872801083</v>
       </c>
       <c r="C36">
-        <v>1.066666666666667</v>
+        <v>6.359945872801083</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40">
-        <v>17.33333333333333</v>
+        <v>13.66711772665765</v>
       </c>
       <c r="C40">
-        <v>17.33333333333333</v>
+        <v>13.66711772665765</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44">
-        <v>4.6</v>
+        <v>3.382949932341001</v>
       </c>
       <c r="C44">
-        <v>4.6</v>
+        <v>3.382949932341001</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48">
-        <v>0</v>
+        <v>0.1353179972936401</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.1353179972936401</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52">
-        <v>1.133333333333333</v>
+        <v>8.525033829499323</v>
       </c>
       <c r="C52">
-        <v>1.133333333333333</v>
+        <v>8.525033829499323</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56">
-        <v>0.2</v>
+        <v>0.8119079837618404</v>
       </c>
       <c r="C56">
-        <v>0.2</v>
+        <v>0.8119079837618404</v>
       </c>
     </row>
     <row r="60" spans="2:3">
